--- a/Biomarkerdatasheet.xlsx
+++ b/Biomarkerdatasheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Lab\Lab-Garg\Subhadip older files\M spectrum Final\M Spectrum paper data\Stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summerjohnson/Documents/GitHub/UTMB-SIBDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D77A1-C68B-4BCE-8DFB-CE0C7C0AD04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF1543E-AB91-4F41-BBE8-4611C37CC408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="2580" windowWidth="14260" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,12 +417,12 @@
   <dimension ref="B2:BU45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ31" sqref="BJ31"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -449,7 +449,7 @@
       <c r="BR2" s="1"/>
       <c r="BS2" s="1"/>
     </row>
-    <row r="3" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -651,7 +651,7 @@
         <v>17.201804200411349</v>
       </c>
     </row>
-    <row r="5" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>249.65289999999999</v>
       </c>
@@ -779,7 +779,7 @@
         <v>34.887110435135313</v>
       </c>
     </row>
-    <row r="6" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>155.8492</v>
       </c>
@@ -907,7 +907,7 @@
         <v>41.747166114816629</v>
       </c>
     </row>
-    <row r="7" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>212.13140000000001</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>13.607457920957247</v>
       </c>
     </row>
-    <row r="8" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>287.17439999999999</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>7.8738293850906285</v>
       </c>
     </row>
-    <row r="9" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>343.45659999999998</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>14.079686990822069</v>
       </c>
     </row>
-    <row r="10" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>334.07619999999997</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>13.577537157645947</v>
       </c>
     </row>
-    <row r="11" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>459.14780000000002</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>13.938370357213172</v>
       </c>
     </row>
-    <row r="12" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>277.79399999999998</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>11.716367892052741</v>
       </c>
     </row>
-    <row r="13" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>340.32979999999998</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>29.263149500000001</v>
       </c>
     </row>
-    <row r="14" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>299.68150000000003</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>31.54713258</v>
       </c>
     </row>
-    <row r="15" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>249.65289999999999</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>21.502361489999998</v>
       </c>
     </row>
-    <row r="16" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:73" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>284.04759999999999</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>11.828808474645374</v>
       </c>
     </row>
-    <row r="17" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:73" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>1106.393</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>9.7421317823338534</v>
       </c>
     </row>
-    <row r="18" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:73" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>837.48950000000002</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>17.543651838917885</v>
       </c>
     </row>
-    <row r="19" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:73" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>734.30539999999996</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>30.490391444510344</v>
       </c>
     </row>
-    <row r="20" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP20" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>23.288901283030384</v>
       </c>
     </row>
-    <row r="21" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP21" t="s">
         <v>1</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>14.360646771448652</v>
       </c>
     </row>
-    <row r="22" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP22" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>3.4357060527558128</v>
       </c>
     </row>
-    <row r="23" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP23" t="s">
         <v>1</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>6.262734488818487</v>
       </c>
     </row>
-    <row r="24" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:73" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>9.3593782669784993</v>
       </c>
     </row>
-    <row r="25" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:73" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>6</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>8.0129973663406417</v>
       </c>
     </row>
-    <row r="26" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:73" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>8.6980920620796525</v>
       </c>
     </row>
-    <row r="27" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP27" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>19.547399997436266</v>
       </c>
     </row>
-    <row r="28" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP28" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>8.6424723744494614</v>
       </c>
     </row>
-    <row r="29" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP29" t="s">
         <v>1</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>3.6225133946601002</v>
       </c>
     </row>
-    <row r="30" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP30" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>4.2869162585379605</v>
       </c>
     </row>
-    <row r="31" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP31" t="s">
         <v>2</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>406.72418726426037</v>
       </c>
     </row>
-    <row r="32" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:73" x14ac:dyDescent="0.2">
       <c r="BP32" t="s">
         <v>2</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>421.84703406202493</v>
       </c>
     </row>
-    <row r="33" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP33" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>582.42632988198227</v>
       </c>
     </row>
-    <row r="34" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP34" t="s">
         <v>2</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>21.88723999452154</v>
       </c>
     </row>
-    <row r="35" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP35" t="s">
         <v>2</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>10.645057214401632</v>
       </c>
     </row>
-    <row r="36" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP36" t="s">
         <v>2</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>11.975757685018712</v>
       </c>
     </row>
-    <row r="37" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP37" t="s">
         <v>2</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>56.940201539977714</v>
       </c>
     </row>
-    <row r="38" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP38" t="s">
         <v>2</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>39.918572280004099</v>
       </c>
     </row>
-    <row r="39" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP39" t="s">
         <v>2</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>32.743115495230676</v>
       </c>
     </row>
-    <row r="40" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP40" t="s">
         <v>2</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>186.7789802621341</v>
       </c>
     </row>
-    <row r="41" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP41" t="s">
         <v>2</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>80.231516293307834</v>
       </c>
     </row>
-    <row r="42" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP42" t="s">
         <v>2</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>65.716738287194616</v>
       </c>
     </row>
-    <row r="43" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP43" t="s">
         <v>2</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>251.96661409019376</v>
       </c>
     </row>
-    <row r="44" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP44" t="s">
         <v>2</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>113.56277596042668</v>
       </c>
     </row>
-    <row r="45" spans="68:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="68:73" x14ac:dyDescent="0.2">
       <c r="BP45" t="s">
         <v>2</v>
       </c>
